--- a/uploads/ServiciosApoyo/ServiciosApoyo_CambioLinea.xlsx
+++ b/uploads/ServiciosApoyo/ServiciosApoyo_CambioLinea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/duplicado cambio de linea/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ServiciosApoyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_7C392A0FB32684474A3C34C8F05F36686ED05417" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B2AEA45-8E1C-4E99-A80D-6DBD9DEEB8B6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_7C392A0FB32684474A3C34C8F05F36686ED05417" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D39E6C-3015-4EEB-A10F-6AC0C0AE27CF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>id_categoria</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>1.00</t>
-  </si>
-  <si>
-    <t>54389000.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
   </si>
 </sst>
 </file>
@@ -95,15 +89,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,15 +126,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,12 +455,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -483,11 +497,11 @@
       <c r="D2">
         <v>2430</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2" s="2">
+        <v>49176755</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -503,11 +517,11 @@
       <c r="D3">
         <v>202.5</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E3" s="3">
+        <v>29929500</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -523,11 +537,11 @@
       <c r="D4">
         <v>810</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E4" s="2">
+        <v>15962400</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
